--- a/PM25_Coding/Data_cleaning/PM2.5/PM2.5_2020_.xlsx
+++ b/PM25_Coding/Data_cleaning/PM2.5/PM2.5_2020_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\DataMining_PM2_5\PM25_Coding\Data_cleaning\PM2.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C97F07C-3C65-4A99-893A-E90A94207A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EABC5B-5C8B-498E-ACB5-7B12AB3BAEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PM2.5" sheetId="1" r:id="rId1"/>
@@ -382,13 +382,7 @@
     <t>มหาวิทยาลัยสุโขทัยธรรมาธิราช</t>
   </si>
   <si>
-    <t xml:space="preserve">ต.หน้าพระลาน อ.เฉลิมพระเกียรติ จ.สระบุรี </t>
-  </si>
-  <si>
     <t>สถานีตำรวจภูธรตำบลหน้าพระลาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ต.ปากเพรียว อ.เมือง จ.สระบุรี </t>
   </si>
   <si>
     <t>สถานีดับเพลิงพระลักษณ์</t>
@@ -562,9 +556,6 @@
     <t>สถานีอุตุนิยมวิทยาลำพูน</t>
   </si>
   <si>
-    <t>ต.นาจักร อ.เมือง จ. แพร่</t>
-  </si>
-  <si>
     <t xml:space="preserve">สถานีอุตุนิยมวิทยาแพร่ </t>
   </si>
   <si>
@@ -572,9 +563,6 @@
   </si>
   <si>
     <t>สนามกีฬาจังหวัดพะเยา</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ต.อรัญประเทศ อ.อรัญประเทศ จ.สระแก้ว </t>
   </si>
   <si>
     <t>สวนกาญจนาภิเษก ร.9 (ฝั่งสวนหิน)</t>
@@ -656,6 +644,18 @@
   </si>
   <si>
     <t>สำนักงานสาธารณสุขจังหวัดสมุทรสงคราม</t>
+  </si>
+  <si>
+    <t>ต.ปากเพรียว อ.เมือง จ.สระบุรี</t>
+  </si>
+  <si>
+    <t>ต.หน้าพระลาน อ.เฉลิมพระเกียรติ จ.สระบุรี</t>
+  </si>
+  <si>
+    <t>ต.นาจักร อ.เมือง จ.แพร่</t>
+  </si>
+  <si>
+    <t>ต.อรัญประเทศ อ.อรัญประเทศ จ.สระแก้ว</t>
   </si>
 </sst>
 </file>
@@ -77841,10 +77841,10 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -79122,10 +79122,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79133,10 +79133,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -79144,10 +79144,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -79155,10 +79155,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79166,10 +79166,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -79177,10 +79177,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -79188,10 +79188,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79199,10 +79199,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79210,10 +79210,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79221,10 +79221,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79232,10 +79232,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79243,10 +79243,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79254,10 +79254,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79265,10 +79265,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79276,10 +79276,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79287,10 +79287,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79298,10 +79298,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79309,10 +79309,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79320,10 +79320,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79331,10 +79331,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79342,10 +79342,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79353,10 +79353,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79364,10 +79364,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79375,10 +79375,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79386,10 +79386,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79397,10 +79397,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79408,10 +79408,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79419,10 +79419,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79430,10 +79430,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -79441,10 +79441,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -79452,10 +79452,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79463,10 +79463,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79474,10 +79474,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79485,10 +79485,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79496,10 +79496,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79507,10 +79507,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79518,10 +79518,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79529,10 +79529,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79540,10 +79540,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79551,10 +79551,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79562,10 +79562,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79573,10 +79573,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79584,10 +79584,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79595,10 +79595,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79606,10 +79606,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -79617,10 +79617,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E69" s="21"/>
     </row>
